--- a/Nike Women Shoes Data.xlsx
+++ b/Nike Women Shoes Data.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$91.97$130</t>
+          <t>$91.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$80.97$100</t>
+          <t>$80.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>$81.97$120</t>
+          <t>$81.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
